--- a/xlsxToCsv/data/DistTableDisplay6b - 1.xlsx
+++ b/xlsxToCsv/data/DistTableDisplay6b - 1.xlsx
@@ -461,7 +461,7 @@
     <row r="3" ht="21.75" customHeight="1">
       <c s="1" t="inlineStr" r="A3">
         <is>
-          <t xml:space="preserve">AGRICULTURAL CENSUS , 1995-96</t>
+          <t xml:space="preserve">AGRICULTURAL CENSUS , 2005-06</t>
         </is>
       </c>
       <c s="2" t="str" r="B3"/>
@@ -694,16 +694,16 @@
         </is>
       </c>
       <c s="17" r="C9">
-        <v>326</v>
+        <v>51</v>
       </c>
       <c s="17" r="D9">
         <v>0</v>
       </c>
       <c s="17" r="E9">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c s="17" r="F9">
-        <v>76</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="0">
@@ -718,16 +718,16 @@
         </is>
       </c>
       <c s="17" r="C10">
-        <v>527</v>
+        <v>141</v>
       </c>
       <c s="17" r="D10">
         <v>0</v>
       </c>
       <c s="17" r="E10">
-        <v>307</v>
+        <v>96</v>
       </c>
       <c s="17" r="F10">
-        <v>307</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="0">
@@ -742,16 +742,16 @@
         </is>
       </c>
       <c s="20" r="C11">
-        <v>853</v>
+        <v>192</v>
       </c>
       <c s="20" r="D11">
         <v>0</v>
       </c>
       <c s="20" r="E11">
-        <v>383</v>
+        <v>107</v>
       </c>
       <c s="20" r="F11">
-        <v>383</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" ht="18.8" customHeight="0">
@@ -766,16 +766,16 @@
         </is>
       </c>
       <c s="17" r="C12">
-        <v>1631</v>
+        <v>347</v>
       </c>
       <c s="17" r="D12">
         <v>0</v>
       </c>
       <c s="17" r="E12">
-        <v>1822</v>
+        <v>426</v>
       </c>
       <c s="17" r="F12">
-        <v>1822</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="0">
@@ -790,16 +790,16 @@
         </is>
       </c>
       <c s="20" r="C13">
-        <v>1631</v>
+        <v>347</v>
       </c>
       <c s="20" r="D13">
         <v>0</v>
       </c>
       <c s="20" r="E13">
-        <v>1822</v>
+        <v>426</v>
       </c>
       <c s="20" r="F13">
-        <v>1822</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="0">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c s="17" r="C14">
-        <v>1739</v>
+        <v>239</v>
       </c>
       <c s="17" r="D14">
         <v>0</v>
       </c>
       <c s="17" r="E14">
-        <v>2637</v>
+        <v>352</v>
       </c>
       <c s="17" r="F14">
-        <v>2637</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" ht="18.75" customHeight="0">
@@ -838,16 +838,16 @@
         </is>
       </c>
       <c s="17" r="C15">
-        <v>769</v>
+        <v>82</v>
       </c>
       <c s="17" r="D15">
         <v>0</v>
       </c>
       <c s="17" r="E15">
-        <v>1371</v>
+        <v>159</v>
       </c>
       <c s="17" r="F15">
-        <v>1371</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" ht="18.75" customHeight="0">
@@ -862,16 +862,16 @@
         </is>
       </c>
       <c s="20" r="C16">
-        <v>2508</v>
+        <v>321</v>
       </c>
       <c s="20" r="D16">
         <v>0</v>
       </c>
       <c s="20" r="E16">
-        <v>4008</v>
+        <v>511</v>
       </c>
       <c s="20" r="F16">
-        <v>4008</v>
+        <v>511</v>
       </c>
     </row>
     <row r="17" ht="18.75" customHeight="0">
@@ -886,16 +886,16 @@
         </is>
       </c>
       <c s="17" r="C17">
-        <v>1855</v>
+        <v>42</v>
       </c>
       <c s="17" r="D17">
         <v>0</v>
       </c>
       <c s="17" r="E17">
-        <v>3418</v>
+        <v>99</v>
       </c>
       <c s="17" r="F17">
-        <v>3418</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" ht="18.8" customHeight="0">
@@ -910,16 +910,16 @@
         </is>
       </c>
       <c s="17" r="C18">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c s="17" r="D18">
         <v>0</v>
       </c>
       <c s="17" r="E18">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c s="17" r="F18">
-        <v>119</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" ht="18.75" customHeight="0">
@@ -934,16 +934,16 @@
         </is>
       </c>
       <c s="17" r="C19">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c s="17" r="D19">
         <v>0</v>
       </c>
       <c s="17" r="E19">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c s="17" r="F19">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="18.75" customHeight="0">
@@ -958,16 +958,16 @@
         </is>
       </c>
       <c s="20" r="C20">
-        <v>1910</v>
+        <v>63</v>
       </c>
       <c s="20" r="D20">
         <v>0</v>
       </c>
       <c s="20" r="E20">
-        <v>3570</v>
+        <v>162</v>
       </c>
       <c s="20" r="F20">
-        <v>3570</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" ht="18.75" customHeight="0">
@@ -982,16 +982,16 @@
         </is>
       </c>
       <c s="17" r="C21">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c s="17" r="D21">
         <v>0</v>
       </c>
       <c s="17" r="E21">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c s="17" r="F21">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" ht="18.75" customHeight="0">
@@ -1006,16 +1006,16 @@
         </is>
       </c>
       <c s="17" r="C22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c s="17" r="D22">
         <v>0</v>
       </c>
       <c s="17" r="E22">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c s="17" r="F22">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="0">
@@ -1030,16 +1030,16 @@
         </is>
       </c>
       <c s="20" r="C23">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c s="20" r="D23">
         <v>0</v>
       </c>
       <c s="20" r="E23">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c s="20" r="F23">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" ht="18.75" customHeight="0">
@@ -1054,16 +1054,16 @@
         </is>
       </c>
       <c s="23" r="C24">
-        <v>6913</v>
+        <v>924</v>
       </c>
       <c s="23" r="D24">
         <v>0</v>
       </c>
       <c s="23" r="E24">
-        <v>9855</v>
+        <v>1261</v>
       </c>
       <c s="23" r="F24">
-        <v>9855</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="25" ht="17.25" customHeight="0">
